--- a/biology/Médecine/1222_en_santé_et_médecine/1222_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1222_en_santé_et_médecine/1222_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1222_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1222_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1222 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1222_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1222_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 septembre : fondation, par des professeurs et des étudiants venus de Bologne, de l'université de Padoue, où la médecine sera très tôt enseignée et, à partir de 1399, formera, avec la rhétorique, la philosophie et l'astronomie, l'une des quatre disciplines de la faculté des arts libéraux (universitas artistarum[2]).
-La « coupe d'Hygie » ou « caducée des pharmaciens », qui n'apparaîtra en France qu'en 1820 sur le jeton de la Société de pharmacie gravé par Jacques-Jean Barre,  figurerait déjà sur la bannière des apothicaires de Padoue comme emblème de leur profession[3].
-L'hôpital de Pontiffroy est rattaché à l'hospice Saint-Nicolas de Metz[4],[5].
-Les chevaliers teutoniques fondent une maladrerie hors les murs de Sarrebourg, dans la principauté épiscopale de Metz[6].
-Première mention de la léproserie de l'Arc, qui donnera son nom au hameau de La Malate (c'est-à-dire « maladrerie »), à Montfaucon près Besançon dans le comté de Bourgogne[7].
-À Louvain, dans le duché de Brabant, le Saint-Hospice qui est à l'origine de l'actuel hôpital universitaire (nl) est transféré sur les bords de la Dyle[8].
-À Paris, l'hôpital Sainte-Opportune devient hôpital Sainte-Catherine et se consacre à l'accueil « des jeunes filles et femmes arrivant de province », aux soins aux malades et à « l'ensevelissement des cadavres des individus morts en prison, en la rivière ou par la ville[9] ».
-Première mention de l'hôpital Saint-Bernard de Troyes[10].
-Selon Blondus (lib. VII, dec. II : « De peste »), cité par Jean Antoine Ozanam, « une phtisie épidémique f[ait] périr à Rome un grand nombre de personnes[11] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 septembre : fondation, par des professeurs et des étudiants venus de Bologne, de l'université de Padoue, où la médecine sera très tôt enseignée et, à partir de 1399, formera, avec la rhétorique, la philosophie et l'astronomie, l'une des quatre disciplines de la faculté des arts libéraux (universitas artistarum).
+La « coupe d'Hygie » ou « caducée des pharmaciens », qui n'apparaîtra en France qu'en 1820 sur le jeton de la Société de pharmacie gravé par Jacques-Jean Barre,  figurerait déjà sur la bannière des apothicaires de Padoue comme emblème de leur profession.
+L'hôpital de Pontiffroy est rattaché à l'hospice Saint-Nicolas de Metz,.
+Les chevaliers teutoniques fondent une maladrerie hors les murs de Sarrebourg, dans la principauté épiscopale de Metz.
+Première mention de la léproserie de l'Arc, qui donnera son nom au hameau de La Malate (c'est-à-dire « maladrerie »), à Montfaucon près Besançon dans le comté de Bourgogne.
+À Louvain, dans le duché de Brabant, le Saint-Hospice qui est à l'origine de l'actuel hôpital universitaire (nl) est transféré sur les bords de la Dyle.
+À Paris, l'hôpital Sainte-Opportune devient hôpital Sainte-Catherine et se consacre à l'accueil « des jeunes filles et femmes arrivant de province », aux soins aux malades et à « l'ensevelissement des cadavres des individus morts en prison, en la rivière ou par la ville ».
+Première mention de l'hôpital Saint-Bernard de Troyes.
+Selon Blondus (lib. VII, dec. II : « De peste »), cité par Jean Antoine Ozanam, « une phtisie épidémique f[ait] périr à Rome un grand nombre de personnes ».</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1222_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1222_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1222 ou 1223 : David ben Abraham Maïmonide (mort en 1300), médecin, chef religieux de la communauté juive d'Égypte, petit-fils de Moïse Maïmonide[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1222 ou 1223 : David ben Abraham Maïmonide (mort en 1300), médecin, chef religieux de la communauté juive d'Égypte, petit-fils de Moïse Maïmonide.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1222_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1222_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nağīb al-Dīn al-Samarqandī (né à une date inconnue), auteur de nombreux ouvrages de médecine, parmi lesquels on peut citer le « Formulaire médical » (Kitāb al-qarābādīn 'alā tartīb al-'ilal[13]), et  « Les Causes et les Symptômes » (Al-Asbāb wa-l-ʿalāmāt[14]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nağīb al-Dīn al-Samarqandī (né à une date inconnue), auteur de nombreux ouvrages de médecine, parmi lesquels on peut citer le « Formulaire médical » (Kitāb al-qarābādīn 'alā tartīb al-'ilal), et  « Les Causes et les Symptômes » (Al-Asbāb wa-l-ʿalāmāt).</t>
         </is>
       </c>
     </row>
